--- a/tuitionComp.xlsx
+++ b/tuitionComp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingr\OneDrive\Documents\2024_summer\usask-tuition-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E065D5-F0F1-4F81-A73D-5E263766F45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E749D-BD25-4EE2-86F6-E0F4CD25DEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{2DF71C4D-7807-4294-9F00-DE077C484422}"/>
   </bookViews>
@@ -538,13 +538,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15633A4-E16F-4582-9753-E8B2F5C491BC}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
@@ -628,6 +628,14 @@
       <c r="M2" s="2">
         <v>6100</v>
       </c>
+      <c r="N2" s="2">
+        <f>AVERAGE(6100,6590)</f>
+        <v>6345</v>
+      </c>
+      <c r="O2" s="2">
+        <f>AVERAGE(6100,6590)</f>
+        <v>6345</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -660,10 +668,16 @@
       <c r="M3" s="2">
         <v>59320</v>
       </c>
+      <c r="N3" s="2">
+        <v>60510</v>
+      </c>
+      <c r="O3" s="2">
+        <v>61720</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
-        <f>D$3/D$2</f>
+        <f>$D3/$D2</f>
         <v>0.43530277583831828</v>
       </c>
       <c r="F4" s="2">
@@ -698,13 +712,13 @@
         <f t="shared" si="0"/>
         <v>9.7245901639344261</v>
       </c>
-      <c r="N4" s="2" t="e">
+      <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="2" t="e">
+        <v>9.5366430260047288</v>
+      </c>
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.7273443656422387</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -717,10 +731,62 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="2">
+        <v>17841</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <f>$D6/$D5</f>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="E7:O7" si="1">$D6/$D5</f>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36382489770752763</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
